--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19D5D17-34DA-45CA-B417-63F1F9A95B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{860FE639-F48A-4181-812E-734087766441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="103">
   <si>
     <t>テーブル倫理名</t>
   </si>
@@ -314,16 +314,34 @@
     <t>category__mid_id</t>
   </si>
   <si>
+    <t>中カテゴリー名</t>
+  </si>
+  <si>
+    <t>category_mid_name</t>
+  </si>
+  <si>
     <t>カテゴリー</t>
   </si>
   <si>
     <t>category</t>
   </si>
   <si>
+    <t>カテゴリー名</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
     <t>ブランド</t>
   </si>
   <si>
     <t>brand</t>
+  </si>
+  <si>
+    <t>ブランド名</t>
+  </si>
+  <si>
+    <t>brand_name</t>
   </si>
 </sst>
 </file>
@@ -923,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7A165E-30DB-46A5-A58B-4F33893F0FAB}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2027,16 +2045,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA915718-F81B-4158-8341-254EFA086BC6}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -2113,36 +2131,38 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2152,28 +2172,28 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -2185,6 +2205,24 @@
         <v>16</v>
       </c>
       <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2199,10 +2237,182 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBE30B9-20C4-4DCC-8285-B73832F72745}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E82F56-2F61-4576-BF0C-DEE66BC0F3D7}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2224,7 +2434,7 @@
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
@@ -2232,7 +2442,7 @@
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -2264,10 +2474,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -2285,47 +2495,49 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -2338,157 +2550,23 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E82F56-2F61-4576-BF0C-DEE66BC0F3D7}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
